--- a/library/ob.xlsx
+++ b/library/ob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A754F7F-91B1-457D-84F1-A5DC338A7361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04649A4-FD0B-4126-804D-0D3321321E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +326,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,8 +742,8 @@
   </sheetPr>
   <dimension ref="B2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,7 +753,7 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
@@ -1053,9 +1054,9 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="8" t="s">
         <v>3</v>
       </c>

--- a/library/ob.xlsx
+++ b/library/ob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C86974-182C-4532-A4F9-2DCC9666018B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F99213-D93A-4139-9BC6-08F16CD2D536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       <b/>
       <shadow/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
@@ -216,7 +216,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,13 +224,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +738,8 @@
   </sheetPr>
   <dimension ref="A2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53:H53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="7"/>
@@ -790,7 +790,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="7"/>
@@ -801,7 +801,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="7"/>
@@ -812,7 +812,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="7"/>
@@ -823,7 +823,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="7"/>
@@ -832,7 +832,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -848,8 +848,8 @@
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -864,8 +864,8 @@
       <c r="I13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -904,9 +904,9 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
@@ -919,12 +919,12 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -950,21 +950,21 @@
         <v>5</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -986,21 +986,21 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1069,12 +1069,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1124,12 +1124,12 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="1"/>
@@ -1226,7 +1226,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="7"/>
@@ -1259,7 +1259,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G42" s="7"/>
@@ -1270,7 +1270,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="7"/>
@@ -1281,7 +1281,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="7"/>
@@ -1292,7 +1292,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G45" s="7"/>
@@ -1301,7 +1301,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1317,8 +1317,8 @@
       <c r="I49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1333,8 +1333,8 @@
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1373,9 +1373,9 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,12 +1388,12 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1419,21 +1419,21 @@
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="12"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="15"/>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -1455,21 +1455,21 @@
         <v>1</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="15"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -1538,12 +1538,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -1593,12 +1593,12 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="1"/>
@@ -1689,6 +1689,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="D21:F21"/>
@@ -1701,12 +1707,6 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="portrait" r:id="rId1"/>
